--- a/metrics/AUPRC.xlsx
+++ b/metrics/AUPRC.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0132030\Desktop\First paper\EJOR\repo\benchmarking-anomaly-detection\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE51F51-776D-41C5-B383-61E5EC2AA502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED78A8B9-3F66-4E4F-ACFF-A791676EF6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{F4C995F8-3183-40BC-8709-303CEB6E2BE0}"/>
   </bookViews>
@@ -486,7 +486,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="3">
-        <v>8.7531116829005232E-2</v>
+        <v>0.47210354758294898</v>
       </c>
       <c r="C2" s="3">
         <v>0.33779378126663279</v>
@@ -909,5 +909,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>